--- a/seed/tests/data/building-performance-standards-sample-2024.xlsx
+++ b/seed/tests/data/building-performance-standards-sample-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achapin/seed/seed/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1FBE7-E109-DE44-983C-BEE33C55B52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D577544C-4676-5C49-9A1C-57C7E88687FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="2340" windowWidth="38400" windowHeight="19840" xr2:uid="{ABA70866-58E3-E741-9E6E-8CBE8BD4F008}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="38400" windowHeight="19840" xr2:uid="{ABA70866-58E3-E741-9E6E-8CBE8BD4F008}"/>
   </bookViews>
   <sheets>
     <sheet name="BPS Data" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Property Name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Medical Office</t>
   </si>
   <si>
-    <t>Building ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total GHG Emissions Intensity </t>
   </si>
   <si>
@@ -155,13 +152,76 @@
   </si>
   <si>
     <t>Audit Template Building ID</t>
+  </si>
+  <si>
+    <t>Portfolio Manager Building ID</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Owner Email</t>
+  </si>
+  <si>
+    <t>Company A</t>
+  </si>
+  <si>
+    <t>admin@companya.com</t>
+  </si>
+  <si>
+    <t>Company B</t>
+  </si>
+  <si>
+    <t>admin@companyb.com</t>
+  </si>
+  <si>
+    <t>Company C</t>
+  </si>
+  <si>
+    <t>admin@companyc.com</t>
+  </si>
+  <si>
+    <t>Company D</t>
+  </si>
+  <si>
+    <t>admin@companyd.com</t>
+  </si>
+  <si>
+    <t>Company E</t>
+  </si>
+  <si>
+    <t>admin@companye.com</t>
+  </si>
+  <si>
+    <t>Company F</t>
+  </si>
+  <si>
+    <t>admin@companyf.com</t>
+  </si>
+  <si>
+    <t>Company G</t>
+  </si>
+  <si>
+    <t>admin@companyg.com</t>
+  </si>
+  <si>
+    <t>Company H</t>
+  </si>
+  <si>
+    <t>admin@companyh.com</t>
+  </si>
+  <si>
+    <t>Company I</t>
+  </si>
+  <si>
+    <t>admin@companyi.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +251,28 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,19 +310,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4367F287-F053-B14B-BB78-7F2A1A8270CC}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{FC32E4A8-5101-754C-BA01-BA4BA25B0A66}"/>
@@ -647,21 +735,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AAF8DA-FAFC-5247-8BBA-26096DB3751B}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -670,592 +760,663 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11911</v>
       </c>
-      <c r="B2" s="2">
-        <v>70339502439620</v>
+      <c r="B2" s="3">
+        <v>21537666</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
       <c r="H2">
         <v>10027</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2">
         <v>193850</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>18</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>127</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>44635</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>44926</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>20</v>
       </c>
-      <c r="O2">
-        <v>2027</v>
-      </c>
-      <c r="P2">
+      <c r="Q2">
+        <v>2027</v>
+      </c>
+      <c r="R2">
         <v>120</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12227</v>
       </c>
-      <c r="B3">
-        <v>70339508188740</v>
+      <c r="B3" s="3">
+        <v>21537667</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
       </c>
       <c r="H3">
         <v>91342</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3">
         <v>30000</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>11</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>65</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>44594</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>44926</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>10</v>
       </c>
-      <c r="O3">
-        <v>2027</v>
-      </c>
-      <c r="P3">
+      <c r="Q3">
+        <v>2027</v>
+      </c>
+      <c r="R3">
         <v>56</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>2027</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>17971</v>
       </c>
-      <c r="B4">
-        <v>70339467993140</v>
+      <c r="B4" s="3">
+        <v>21537668</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>10468</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4">
         <v>79000</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>51</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>64</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>44594</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>44926</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>40</v>
       </c>
-      <c r="O4">
-        <v>2027</v>
-      </c>
-      <c r="P4">
+      <c r="Q4">
+        <v>2027</v>
+      </c>
+      <c r="R4">
         <v>45</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>2027</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>21381</v>
       </c>
-      <c r="B5">
-        <v>70339516372420</v>
+      <c r="B5" s="3">
+        <v>21537669</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
       </c>
       <c r="H5">
         <v>10006</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5">
         <v>368315</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>52</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>85</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>44631</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>44926</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>45</v>
       </c>
-      <c r="O5">
-        <v>2027</v>
-      </c>
-      <c r="P5">
+      <c r="Q5">
+        <v>2027</v>
+      </c>
+      <c r="R5">
         <v>70</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>2027</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21404</v>
       </c>
-      <c r="B6">
-        <v>70339452621140</v>
+      <c r="B6" s="3">
+        <v>21537670</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>10459</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6">
         <v>51190</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>42</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>100</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>44562</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>44926</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>37</v>
       </c>
-      <c r="O6">
-        <v>2027</v>
-      </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>2027</v>
+      </c>
+      <c r="R6">
         <v>85</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>2027</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21405</v>
       </c>
-      <c r="B7">
-        <v>70339516221660</v>
+      <c r="B7" s="3">
+        <v>21537671</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
       </c>
       <c r="H7">
         <v>10006</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7">
         <v>447442</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>63</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>52</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>44622</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>44926</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>50</v>
       </c>
-      <c r="O7">
-        <v>2027</v>
-      </c>
-      <c r="P7">
+      <c r="Q7">
+        <v>2027</v>
+      </c>
+      <c r="R7">
         <v>45</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>2027</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>21368</v>
       </c>
-      <c r="B8">
-        <v>70339463823000</v>
+      <c r="B8" s="3">
+        <v>21537672</v>
       </c>
       <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8">
         <v>94107</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8">
         <v>8352</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>31</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>272</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>44623</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>44926</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>25</v>
       </c>
-      <c r="O8">
-        <v>2027</v>
-      </c>
-      <c r="P8">
+      <c r="Q8">
+        <v>2027</v>
+      </c>
+      <c r="R8">
         <v>200</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>2027</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>21378</v>
       </c>
-      <c r="B9">
-        <v>70339513510300</v>
+      <c r="B9" s="3">
+        <v>21537673</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>94133</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9">
         <v>40017</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>52</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>75</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>44624</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>44926</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>45</v>
       </c>
-      <c r="O9">
-        <v>2027</v>
-      </c>
-      <c r="P9">
+      <c r="Q9">
+        <v>2027</v>
+      </c>
+      <c r="R9">
         <v>60</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>2027</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21426</v>
       </c>
-      <c r="B10">
-        <v>70339508400460</v>
+      <c r="B10" s="3">
+        <v>21537674</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10">
         <v>94124</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>53000</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>45</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>56</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>44625</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>44926</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>40</v>
       </c>
-      <c r="O10">
-        <v>2027</v>
-      </c>
-      <c r="P10">
+      <c r="Q10">
+        <v>2027</v>
+      </c>
+      <c r="R10">
         <v>45</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>2027</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="J2:K10">
+  <conditionalFormatting sqref="L2:M10">
     <cfRule type="expression" dxfId="12" priority="34" stopIfTrue="1">
+      <formula>$R2="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:M10">
+    <cfRule type="expression" dxfId="11" priority="31" stopIfTrue="1">
       <formula>$P2="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K10">
-    <cfRule type="expression" dxfId="11" priority="31" stopIfTrue="1">
-      <formula>$N2="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K10">
+  <conditionalFormatting sqref="M2:M10">
     <cfRule type="cellIs" dxfId="10" priority="32" operator="notBetween">
       <formula>40</formula>
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O6 O2:Q10">
+  <conditionalFormatting sqref="P2:Q6 Q2:S10">
     <cfRule type="expression" dxfId="9" priority="24" stopIfTrue="1">
-      <formula>$R2="Yes"</formula>
+      <formula>$T2="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O6 O2:Q10">
+  <conditionalFormatting sqref="P2:Q6 Q2:S10">
     <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
-      <formula>$Q2="Yes"</formula>
+      <formula>$S2="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P10">
+  <conditionalFormatting sqref="R2:R10">
     <cfRule type="cellIs" dxfId="7" priority="23" operator="notBetween">
       <formula>40</formula>
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:O8 N9:N10">
+  <conditionalFormatting sqref="P7:Q8 P9:P10">
     <cfRule type="expression" dxfId="6" priority="25" stopIfTrue="1">
-      <formula>$R6="Yes"</formula>
+      <formula>$T6="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:O8 N9:N10">
+  <conditionalFormatting sqref="P7:Q8 P9:P10">
     <cfRule type="expression" dxfId="5" priority="26" stopIfTrue="1">
-      <formula>$Q6="Yes"</formula>
+      <formula>$S6="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:O10">
+  <conditionalFormatting sqref="Q9:Q10">
     <cfRule type="expression" dxfId="4" priority="16" stopIfTrue="1">
-      <formula>$R8="Yes"</formula>
+      <formula>$T8="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:O10">
+  <conditionalFormatting sqref="Q9:Q10">
     <cfRule type="expression" dxfId="3" priority="17" stopIfTrue="1">
-      <formula>$Q8="Yes"</formula>
+      <formula>$S8="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I10">
+  <conditionalFormatting sqref="K2:K10">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>$P2="Yes"</formula>
+      <formula>$R2="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I10">
+  <conditionalFormatting sqref="K2:K10">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
       <formula>1000</formula>
       <formula>1000000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I10">
+  <conditionalFormatting sqref="K2:K10">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$N2="Yes"</formula>
+      <formula>$P2="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{DAD5228F-3680-214C-8446-7EE30D438BA5}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{61933765-B8FD-AB46-80D5-07A2DAD5AECE}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{C220582D-BAFA-634F-97E9-3F76CE2A3663}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{81873E70-220E-E144-80D6-F716336547DD}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{E03285F2-5DC4-DB49-88D9-8FA2953C8DC3}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{41D0CEE2-D980-1A4C-B2C4-F57807DAC56A}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{F200AA27-CA72-CE4B-A0FB-1AFB2F988C3C}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{5392522A-DAAA-3F40-BB41-9649F9D17916}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{33D767AF-519E-4040-AF45-DCB2C118F513}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/seed/tests/data/building-performance-standards-sample-2024.xlsx
+++ b/seed/tests/data/building-performance-standards-sample-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achapin/seed/seed/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D577544C-4676-5C49-9A1C-57C7E88687FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28CAF54-5B06-4D44-B8AE-D02A5A2A6F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="38400" windowHeight="19840" xr2:uid="{ABA70866-58E3-E741-9E6E-8CBE8BD4F008}"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="38400" windowHeight="19840" xr2:uid="{ABA70866-58E3-E741-9E6E-8CBE8BD4F008}"/>
   </bookViews>
   <sheets>
     <sheet name="BPS Data" sheetId="2" r:id="rId1"/>
@@ -333,7 +333,56 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4367F287-F053-B14B-BB78-7F2A1A8270CC}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{FC32E4A8-5101-754C-BA01-BA4BA25B0A66}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -738,7 +787,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,13 +901,13 @@
         <v>44926</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q2">
         <v>2027</v>
       </c>
       <c r="R2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="S2">
         <v>2027</v>
@@ -911,7 +960,7 @@
         <v>44926</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q3">
         <v>2027</v>
@@ -970,13 +1019,13 @@
         <v>44926</v>
       </c>
       <c r="P4">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q4">
         <v>2027</v>
       </c>
       <c r="R4">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="S4">
         <v>2027</v>
@@ -1029,13 +1078,13 @@
         <v>44926</v>
       </c>
       <c r="P5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="Q5">
         <v>2027</v>
       </c>
       <c r="R5">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="S5">
         <v>2027</v>
@@ -1088,13 +1137,13 @@
         <v>44926</v>
       </c>
       <c r="P6">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q6">
         <v>2027</v>
       </c>
       <c r="R6">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="S6">
         <v>2027</v>
@@ -1147,13 +1196,13 @@
         <v>44926</v>
       </c>
       <c r="P7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q7">
         <v>2027</v>
       </c>
       <c r="R7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="S7">
         <v>2027</v>
@@ -1206,13 +1255,13 @@
         <v>44926</v>
       </c>
       <c r="P8">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>2027</v>
       </c>
       <c r="R8">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="S8">
         <v>2027</v>
@@ -1265,7 +1314,7 @@
         <v>44926</v>
       </c>
       <c r="P9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q9">
         <v>2027</v>
@@ -1324,13 +1373,13 @@
         <v>44926</v>
       </c>
       <c r="P10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q10">
         <v>2027</v>
       </c>
       <c r="R10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S10">
         <v>2027</v>
@@ -1339,71 +1388,71 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="L2:M10">
-    <cfRule type="expression" dxfId="12" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="41" stopIfTrue="1">
       <formula>$R2="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:M10">
-    <cfRule type="expression" dxfId="11" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>$P2="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M10">
-    <cfRule type="cellIs" dxfId="10" priority="32" operator="notBetween">
+    <cfRule type="cellIs" dxfId="17" priority="39" operator="notBetween">
       <formula>40</formula>
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:Q6 Q2:S10">
-    <cfRule type="expression" dxfId="9" priority="24" stopIfTrue="1">
+  <conditionalFormatting sqref="K2:K10">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>$R2="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K10">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="notBetween">
+      <formula>1000</formula>
+      <formula>1000000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K10">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>$P2="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:Q6 Q7:Q10 R2:S10">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>$T2="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:Q6 Q2:S10">
-    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="P2:Q6 Q7:Q10 R2:S10">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$S2="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R10">
-    <cfRule type="cellIs" dxfId="7" priority="23" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="notBetween">
       <formula>40</formula>
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:Q8 P9:P10">
-    <cfRule type="expression" dxfId="6" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>$T6="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:Q8 P9:P10">
-    <cfRule type="expression" dxfId="5" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
       <formula>$S6="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q10">
-    <cfRule type="expression" dxfId="4" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>$T8="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:Q10">
-    <cfRule type="expression" dxfId="3" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$S8="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K10">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>$R2="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
-      <formula>1000</formula>
-      <formula>1000000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K10">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$P2="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
